--- a/data/ENVS2018 kioloa camera data 2025.xlsx
+++ b/data/ENVS2018 kioloa camera data 2025.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3a69dc1a79d235a/2 PhD/GIT/ENVS2018-environmental-science-field-school/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="495" documentId="13_ncr:1_{4923BF50-181C-49E0-B701-65F6BFF95386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2DA51D88-3A7E-4524-AF27-DF6FEE7D4554}"/>
+  <xr:revisionPtr revIDLastSave="500" documentId="13_ncr:1_{4923BF50-181C-49E0-B701-65F6BFF95386}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CCDFEC5C-5E79-4701-B04B-42B5BD66567E}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2865" windowWidth="29040" windowHeight="15720" xr2:uid="{0855291B-83FE-4C3F-9AEC-A841D89559E4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0855291B-83FE-4C3F-9AEC-A841D89559E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Camera data" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="41">
   <si>
     <t>Group</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Swamp Rat</t>
   </si>
   <si>
-    <t>Bush rat</t>
-  </si>
-  <si>
     <t>Trichosurus vulpecula</t>
   </si>
   <si>
@@ -126,9 +123,6 @@
     <t>Bos taurus</t>
   </si>
   <si>
-    <t>House mouse</t>
-  </si>
-  <si>
     <t>Mus musculus</t>
   </si>
   <si>
@@ -147,24 +141,9 @@
     <t>No animals recorded- just photos of grass blowing in wind.</t>
   </si>
   <si>
-    <t xml:space="preserve">Feral cat </t>
-  </si>
-  <si>
     <t>Felis catus</t>
   </si>
   <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
     <t>Not deployed here this year due to time constraints</t>
   </si>
   <si>
@@ -172,6 +151,15 @@
   </si>
   <si>
     <t>Rattus rattus</t>
+  </si>
+  <si>
+    <t>Bush Rat</t>
+  </si>
+  <si>
+    <t>Cat</t>
+  </si>
+  <si>
+    <t>House Mouse</t>
   </si>
 </sst>
 </file>
@@ -276,6 +264,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -577,8 +569,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0587933C-DFD8-4B0D-926D-C9791FA23C2A}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -610,7 +602,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="10">
         <v>45910</v>
@@ -619,10 +611,10 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -636,10 +628,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -653,10 +645,10 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -670,10 +662,10 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -687,15 +679,15 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="10">
         <v>45909</v>
@@ -704,10 +696,10 @@
         <v>15</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -721,7 +713,7 @@
         <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>10</v>
@@ -738,7 +730,7 @@
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>10</v>
@@ -755,7 +747,7 @@
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>10</v>
@@ -772,7 +764,7 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>10</v>
@@ -789,7 +781,7 @@
         <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>10</v>
@@ -806,7 +798,7 @@
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>10</v>
@@ -823,10 +815,10 @@
         <v>3</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -840,10 +832,10 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -857,15 +849,15 @@
         <v>13</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="10">
         <v>45911</v>
@@ -874,10 +866,10 @@
         <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
@@ -933,7 +925,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21" s="10">
         <v>45911</v>
@@ -942,10 +934,10 @@
         <v>15</v>
       </c>
       <c r="D21" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="11" t="s">
         <v>26</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -979,7 +971,7 @@
         <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>6</v>
@@ -989,7 +981,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="9">
         <v>15</v>
@@ -1001,7 +993,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="9">
         <v>8</v>
@@ -1013,7 +1005,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="9">
         <v>21</v>
@@ -1034,7 +1026,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -1048,7 +1040,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -1062,7 +1054,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -1088,7 +1080,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -1102,7 +1094,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -1128,7 +1120,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -1142,7 +1134,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -1156,7 +1148,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -1170,7 +1162,7 @@
         <v>2</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -1208,7 +1200,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -1294,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
